--- a/Pinout.xlsx
+++ b/Pinout.xlsx
@@ -113,9 +113,6 @@
     <t>Button up 9</t>
   </si>
   <si>
-    <t>Button up 11</t>
-  </si>
-  <si>
     <t>Button down 1</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>Button down 9</t>
   </si>
   <si>
-    <t>Button down 11</t>
-  </si>
-  <si>
     <t>Pin</t>
   </si>
   <si>
@@ -158,10 +152,16 @@
     <t>Button down 10</t>
   </si>
   <si>
-    <t>Relay up 10</t>
-  </si>
-  <si>
-    <t>Relay down 10</t>
+    <t>Button 0 up</t>
+  </si>
+  <si>
+    <t>Button 0 down</t>
+  </si>
+  <si>
+    <t>Relay up 0</t>
+  </si>
+  <si>
+    <t>Relay down 0</t>
   </si>
 </sst>
 </file>
@@ -481,146 +481,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -644,7 +644,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -660,7 +660,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -676,7 +676,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,7 +700,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -740,7 +740,7 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +756,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -812,7 +812,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,7 +836,7 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +844,7 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
